--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Slit3-Robo2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Slit3-Robo2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.03006163268641</v>
+        <v>2.628170333333333</v>
       </c>
       <c r="H2">
-        <v>2.03006163268641</v>
+        <v>7.884511</v>
       </c>
       <c r="I2">
-        <v>0.03412973557768682</v>
+        <v>0.04342563178849849</v>
       </c>
       <c r="J2">
-        <v>0.03412973557768682</v>
+        <v>0.04342563178849849</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.20597690674508</v>
+        <v>0.2862413333333333</v>
       </c>
       <c r="N2">
-        <v>0.20597690674508</v>
+        <v>0.8587239999999999</v>
       </c>
       <c r="O2">
-        <v>0.1986193225258677</v>
+        <v>0.2470481349207034</v>
       </c>
       <c r="P2">
-        <v>0.1986193225258677</v>
+        <v>0.2470481349207034</v>
       </c>
       <c r="Q2">
-        <v>0.4181458156026135</v>
+        <v>0.7522909804404443</v>
       </c>
       <c r="R2">
-        <v>0.4181458156026135</v>
+        <v>6.770618823963999</v>
       </c>
       <c r="S2">
-        <v>0.00677882495842716</v>
+        <v>0.01072822134110176</v>
       </c>
       <c r="T2">
-        <v>0.00677882495842716</v>
+        <v>0.01072822134110176</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.03006163268641</v>
+        <v>2.628170333333333</v>
       </c>
       <c r="H3">
-        <v>2.03006163268641</v>
+        <v>7.884511</v>
       </c>
       <c r="I3">
-        <v>0.03412973557768682</v>
+        <v>0.04342563178849849</v>
       </c>
       <c r="J3">
-        <v>0.03412973557768682</v>
+        <v>0.04342563178849849</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.831066741000995</v>
+        <v>0.8701086666666665</v>
       </c>
       <c r="N3">
-        <v>0.831066741000995</v>
+        <v>2.610326</v>
       </c>
       <c r="O3">
-        <v>0.8013806774741323</v>
+        <v>0.7509702417016644</v>
       </c>
       <c r="P3">
-        <v>0.8013806774741323</v>
+        <v>0.7509702417016644</v>
       </c>
       <c r="Q3">
-        <v>1.687116705107853</v>
+        <v>2.286793784509555</v>
       </c>
       <c r="R3">
-        <v>1.687116705107853</v>
+        <v>20.581144060586</v>
       </c>
       <c r="S3">
-        <v>0.02735091061925966</v>
+        <v>0.03261135720025619</v>
       </c>
       <c r="T3">
-        <v>0.02735091061925966</v>
+        <v>0.03261135720025619</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.7713517370918</v>
+        <v>2.628170333333333</v>
       </c>
       <c r="H4">
-        <v>55.7713517370918</v>
+        <v>7.884511</v>
       </c>
       <c r="I4">
-        <v>0.9376372898975631</v>
+        <v>0.04342563178849849</v>
       </c>
       <c r="J4">
-        <v>0.9376372898975631</v>
+        <v>0.04342563178849849</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.20597690674508</v>
+        <v>0.002296</v>
       </c>
       <c r="N4">
-        <v>0.20597690674508</v>
+        <v>0.006888</v>
       </c>
       <c r="O4">
-        <v>0.1986193225258677</v>
+        <v>0.001981623377632167</v>
       </c>
       <c r="P4">
-        <v>0.1986193225258677</v>
+        <v>0.001981623377632167</v>
       </c>
       <c r="Q4">
-        <v>11.48761051579801</v>
+        <v>0.006034279085333332</v>
       </c>
       <c r="R4">
-        <v>11.48761051579801</v>
+        <v>0.054308511768</v>
       </c>
       <c r="S4">
-        <v>0.1862328832944446</v>
+        <v>8.605324714053519E-05</v>
       </c>
       <c r="T4">
-        <v>0.1862328832944446</v>
+        <v>8.605324714053519E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,185 +711,743 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.7713517370918</v>
+        <v>56.014214</v>
       </c>
       <c r="H5">
-        <v>55.7713517370918</v>
+        <v>168.042642</v>
       </c>
       <c r="I5">
-        <v>0.9376372898975631</v>
+        <v>0.9255308155773353</v>
       </c>
       <c r="J5">
-        <v>0.9376372898975631</v>
+        <v>0.9255308155773353</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.831066741000995</v>
+        <v>0.2862413333333333</v>
       </c>
       <c r="N5">
-        <v>0.831066741000995</v>
+        <v>0.8587239999999999</v>
       </c>
       <c r="O5">
-        <v>0.8013806774741323</v>
+        <v>0.2470481349207034</v>
       </c>
       <c r="P5">
-        <v>0.8013806774741323</v>
+        <v>0.2470481349207034</v>
       </c>
       <c r="Q5">
-        <v>46.34971552936506</v>
+        <v>16.03358330097867</v>
       </c>
       <c r="R5">
-        <v>46.34971552936506</v>
+        <v>144.302249708808</v>
       </c>
       <c r="S5">
-        <v>0.7514044066031186</v>
+        <v>0.2286506618000182</v>
       </c>
       <c r="T5">
-        <v>0.7514044066031186</v>
+        <v>0.2286506618000182</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.67931797270585</v>
+        <v>56.014214</v>
       </c>
       <c r="H6">
-        <v>1.67931797270585</v>
+        <v>168.042642</v>
       </c>
       <c r="I6">
-        <v>0.02823297452474998</v>
+        <v>0.9255308155773353</v>
       </c>
       <c r="J6">
-        <v>0.02823297452474998</v>
+        <v>0.9255308155773353</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.20597690674508</v>
+        <v>0.8701086666666665</v>
       </c>
       <c r="N6">
-        <v>0.20597690674508</v>
+        <v>2.610326</v>
       </c>
       <c r="O6">
-        <v>0.1986193225258677</v>
+        <v>0.7509702417016644</v>
       </c>
       <c r="P6">
-        <v>0.1986193225258677</v>
+        <v>0.7509702417016644</v>
       </c>
       <c r="Q6">
-        <v>0.3459007214593697</v>
+        <v>48.73845305792133</v>
       </c>
       <c r="R6">
-        <v>0.3459007214593697</v>
+        <v>438.6460775212919</v>
       </c>
       <c r="S6">
-        <v>0.005607614272995923</v>
+        <v>0.6950461002764501</v>
       </c>
       <c r="T6">
-        <v>0.005607614272995923</v>
+        <v>0.6950461002764501</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>56.014214</v>
+      </c>
+      <c r="H7">
+        <v>168.042642</v>
+      </c>
+      <c r="I7">
+        <v>0.9255308155773353</v>
+      </c>
+      <c r="J7">
+        <v>0.9255308155773353</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.002296</v>
+      </c>
+      <c r="N7">
+        <v>0.006888</v>
+      </c>
+      <c r="O7">
+        <v>0.001981623377632167</v>
+      </c>
+      <c r="P7">
+        <v>0.001981623377632167</v>
+      </c>
+      <c r="Q7">
+        <v>0.128608635344</v>
+      </c>
+      <c r="R7">
+        <v>1.157477718096</v>
+      </c>
+      <c r="S7">
+        <v>0.001834053500867014</v>
+      </c>
+      <c r="T7">
+        <v>0.001834053500867014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.003554</v>
+      </c>
+      <c r="H8">
+        <v>0.010662</v>
+      </c>
+      <c r="I8">
+        <v>5.872324689875768E-05</v>
+      </c>
+      <c r="J8">
+        <v>5.872324689875769E-05</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.2862413333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.8587239999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.2470481349207034</v>
+      </c>
+      <c r="P8">
+        <v>0.2470481349207034</v>
+      </c>
+      <c r="Q8">
+        <v>0.001017301698666666</v>
+      </c>
+      <c r="R8">
+        <v>0.009155715287999999</v>
+      </c>
+      <c r="S8">
+        <v>1.450746862282607E-05</v>
+      </c>
+      <c r="T8">
+        <v>1.450746862282607E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.003554</v>
+      </c>
+      <c r="H9">
+        <v>0.010662</v>
+      </c>
+      <c r="I9">
+        <v>5.872324689875768E-05</v>
+      </c>
+      <c r="J9">
+        <v>5.872324689875769E-05</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8701086666666665</v>
+      </c>
+      <c r="N9">
+        <v>2.610326</v>
+      </c>
+      <c r="O9">
+        <v>0.7509702417016644</v>
+      </c>
+      <c r="P9">
+        <v>0.7509702417016644</v>
+      </c>
+      <c r="Q9">
+        <v>0.003092366201333333</v>
+      </c>
+      <c r="R9">
+        <v>0.027831295812</v>
+      </c>
+      <c r="S9">
+        <v>4.409941091706657E-05</v>
+      </c>
+      <c r="T9">
+        <v>4.409941091706657E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.003554</v>
+      </c>
+      <c r="H10">
+        <v>0.010662</v>
+      </c>
+      <c r="I10">
+        <v>5.872324689875768E-05</v>
+      </c>
+      <c r="J10">
+        <v>5.872324689875769E-05</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.002296</v>
+      </c>
+      <c r="N10">
+        <v>0.006888</v>
+      </c>
+      <c r="O10">
+        <v>0.001981623377632167</v>
+      </c>
+      <c r="P10">
+        <v>0.001981623377632167</v>
+      </c>
+      <c r="Q10">
+        <v>8.159983999999999E-06</v>
+      </c>
+      <c r="R10">
+        <v>7.343985599999999E-05</v>
+      </c>
+      <c r="S10">
+        <v>1.163673588650439E-07</v>
+      </c>
+      <c r="T10">
+        <v>1.163673588650439E-07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.06141066666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.184232</v>
+      </c>
+      <c r="I11">
+        <v>0.001014697169635334</v>
+      </c>
+      <c r="J11">
+        <v>0.001014697169635334</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2862413333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.8587239999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.2470481349207034</v>
+      </c>
+      <c r="P11">
+        <v>0.2470481349207034</v>
+      </c>
+      <c r="Q11">
+        <v>0.01757827110755555</v>
+      </c>
+      <c r="R11">
+        <v>0.158204439968</v>
+      </c>
+      <c r="S11">
+        <v>0.0002506790432677257</v>
+      </c>
+      <c r="T11">
+        <v>0.0002506790432677257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.06141066666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.184232</v>
+      </c>
+      <c r="I12">
+        <v>0.001014697169635334</v>
+      </c>
+      <c r="J12">
+        <v>0.001014697169635334</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.8701086666666665</v>
+      </c>
+      <c r="N12">
+        <v>2.610326</v>
+      </c>
+      <c r="O12">
+        <v>0.7509702417016644</v>
+      </c>
+      <c r="P12">
+        <v>0.7509702417016644</v>
+      </c>
+      <c r="Q12">
+        <v>0.05343395329244443</v>
+      </c>
+      <c r="R12">
+        <v>0.4809055796319999</v>
+      </c>
+      <c r="S12">
+        <v>0.0007620073787350411</v>
+      </c>
+      <c r="T12">
+        <v>0.0007620073787350411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.06141066666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.184232</v>
+      </c>
+      <c r="I13">
+        <v>0.001014697169635334</v>
+      </c>
+      <c r="J13">
+        <v>0.001014697169635334</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.002296</v>
+      </c>
+      <c r="N13">
+        <v>0.006888</v>
+      </c>
+      <c r="O13">
+        <v>0.001981623377632167</v>
+      </c>
+      <c r="P13">
+        <v>0.001981623377632167</v>
+      </c>
+      <c r="Q13">
+        <v>0.0001409988906666666</v>
+      </c>
+      <c r="R13">
+        <v>0.001268990016</v>
+      </c>
+      <c r="S13">
+        <v>2.01074763256657E-06</v>
+      </c>
+      <c r="T13">
+        <v>2.01074763256657E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.813827666666667</v>
+      </c>
+      <c r="H14">
+        <v>5.441483</v>
+      </c>
+      <c r="I14">
+        <v>0.02997013221763203</v>
+      </c>
+      <c r="J14">
+        <v>0.02997013221763203</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2862413333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.8587239999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.2470481349207034</v>
+      </c>
+      <c r="P14">
+        <v>0.2470481349207034</v>
+      </c>
+      <c r="Q14">
+        <v>0.5191924497435555</v>
+      </c>
+      <c r="R14">
+        <v>4.672732047692</v>
+      </c>
+      <c r="S14">
+        <v>0.007404065267692877</v>
+      </c>
+      <c r="T14">
+        <v>0.007404065267692878</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.67931797270585</v>
-      </c>
-      <c r="H7">
-        <v>1.67931797270585</v>
-      </c>
-      <c r="I7">
-        <v>0.02823297452474998</v>
-      </c>
-      <c r="J7">
-        <v>0.02823297452474998</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.831066741000995</v>
-      </c>
-      <c r="N7">
-        <v>0.831066741000995</v>
-      </c>
-      <c r="O7">
-        <v>0.8013806774741323</v>
-      </c>
-      <c r="P7">
-        <v>0.8013806774741323</v>
-      </c>
-      <c r="Q7">
-        <v>1.395625314681049</v>
-      </c>
-      <c r="R7">
-        <v>1.395625314681049</v>
-      </c>
-      <c r="S7">
-        <v>0.02262536025175406</v>
-      </c>
-      <c r="T7">
-        <v>0.02262536025175406</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.813827666666667</v>
+      </c>
+      <c r="H15">
+        <v>5.441483</v>
+      </c>
+      <c r="I15">
+        <v>0.02997013221763203</v>
+      </c>
+      <c r="J15">
+        <v>0.02997013221763203</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.8701086666666665</v>
+      </c>
+      <c r="N15">
+        <v>2.610326</v>
+      </c>
+      <c r="O15">
+        <v>0.7509702417016644</v>
+      </c>
+      <c r="P15">
+        <v>0.7509702417016644</v>
+      </c>
+      <c r="Q15">
+        <v>1.578227172606444</v>
+      </c>
+      <c r="R15">
+        <v>14.204044553458</v>
+      </c>
+      <c r="S15">
+        <v>0.02250667743530596</v>
+      </c>
+      <c r="T15">
+        <v>0.02250667743530596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.813827666666667</v>
+      </c>
+      <c r="H16">
+        <v>5.441483</v>
+      </c>
+      <c r="I16">
+        <v>0.02997013221763203</v>
+      </c>
+      <c r="J16">
+        <v>0.02997013221763203</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.002296</v>
+      </c>
+      <c r="N16">
+        <v>0.006888</v>
+      </c>
+      <c r="O16">
+        <v>0.001981623377632167</v>
+      </c>
+      <c r="P16">
+        <v>0.001981623377632167</v>
+      </c>
+      <c r="Q16">
+        <v>0.004164548322666667</v>
+      </c>
+      <c r="R16">
+        <v>0.037480934904</v>
+      </c>
+      <c r="S16">
+        <v>5.938951463318661E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.938951463318662E-05</v>
       </c>
     </row>
   </sheetData>
